--- a/data/tehilim-data/39.xlsx
+++ b/data/tehilim-data/39.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="244">
   <si>
     <t>original</t>
   </si>
@@ -22,25 +22,25 @@
     <t>א</t>
   </si>
   <si>
-    <t>לַמְנַצֵּחַ</t>
+    <t>למנצח</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю</t>
   </si>
   <si>
-    <t>לִידוּתוּן</t>
+    <t>לידותון</t>
   </si>
   <si>
-    <t>Идифуму</t>
+    <t>для Иедуфуна</t>
   </si>
   <si>
-    <t>מִזְמוֹר</t>
+    <t>מזמור</t>
   </si>
   <si>
-    <t>псалом</t>
+    <t>Песнопение</t>
   </si>
   <si>
-    <t>לְדָוִד</t>
+    <t>לדוד</t>
   </si>
   <si>
     <t>Давида</t>
@@ -49,358 +49,409 @@
     <t>ב</t>
   </si>
   <si>
-    <t>אָמַרְתִּי</t>
+    <t>אמרתי</t>
   </si>
   <si>
-    <t>я сказал</t>
+    <t>Сказал</t>
   </si>
   <si>
-    <t>אֶשְׁמְרָה</t>
+    <t>אשמרה</t>
   </si>
   <si>
-    <t>буду наблюдать</t>
+    <t>я буду наблюдать</t>
   </si>
   <si>
-    <t>דְרָכַי</t>
+    <t>דרכי</t>
   </si>
   <si>
-    <t>пути мои</t>
+    <t>за путями</t>
   </si>
   <si>
-    <t>מֵחֲטוֹא</t>
+    <t>מחטוא</t>
   </si>
   <si>
-    <t>чтобы не согрешить</t>
+    <t>моими, чтобы не согрешить</t>
   </si>
   <si>
-    <t>בִּלְשׁוֹנִי</t>
+    <t>בלשוני</t>
+  </si>
+  <si>
+    <t>языком моим;</t>
+  </si>
+  <si>
+    <t>буду обуздывать</t>
+  </si>
+  <si>
+    <t>לפי</t>
+  </si>
+  <si>
+    <t>уста мои,</t>
+  </si>
+  <si>
+    <t>מחסום</t>
+  </si>
+  <si>
+    <t>доколе</t>
+  </si>
+  <si>
+    <t>בעד</t>
+  </si>
+  <si>
+    <t>злодей</t>
+  </si>
+  <si>
+    <t>רשע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предо </t>
+  </si>
+  <si>
+    <t>לנגדי</t>
+  </si>
+  <si>
+    <t>мною</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>נאלמתי</t>
+  </si>
+  <si>
+    <t>Я</t>
+  </si>
+  <si>
+    <t>דומיה</t>
+  </si>
+  <si>
+    <t>онемел</t>
+  </si>
+  <si>
+    <t>החשיתי</t>
+  </si>
+  <si>
+    <t>и безмолвствовал,</t>
+  </si>
+  <si>
+    <t>מטוב</t>
+  </si>
+  <si>
+    <t>и умолкал о добром,</t>
+  </si>
+  <si>
+    <t>וכאבי</t>
+  </si>
+  <si>
+    <t>и скорбь моя</t>
+  </si>
+  <si>
+    <t>נעכר</t>
+  </si>
+  <si>
+    <t>подвиглась.</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>חם</t>
+  </si>
+  <si>
+    <t>Воспылало</t>
+  </si>
+  <si>
+    <t>לבי</t>
+  </si>
+  <si>
+    <t>сердце</t>
+  </si>
+  <si>
+    <t>בקרבי</t>
+  </si>
+  <si>
+    <t>мое во мне;</t>
+  </si>
+  <si>
+    <t>בהגיגי</t>
+  </si>
+  <si>
+    <t>в мыслях моих</t>
+  </si>
+  <si>
+    <t>תבער</t>
+  </si>
+  <si>
+    <t>возгорелся</t>
+  </si>
+  <si>
+    <t>אש</t>
+  </si>
+  <si>
+    <t>огонь,</t>
+  </si>
+  <si>
+    <t>דברתי</t>
+  </si>
+  <si>
+    <t>я стал говорить</t>
   </si>
   <si>
     <t>языком моим</t>
   </si>
   <si>
-    <t>буду обуздывать</t>
-  </si>
-  <si>
-    <t>לְפִי</t>
-  </si>
-  <si>
-    <t>уста мои</t>
-  </si>
-  <si>
-    <t>מַחְסוֹם</t>
-  </si>
-  <si>
-    <t>намордником</t>
-  </si>
-  <si>
-    <t>בְּעוֹד</t>
-  </si>
-  <si>
-    <t>пока</t>
-  </si>
-  <si>
-    <t>רָשָׁע</t>
-  </si>
-  <si>
-    <t>нечестивый</t>
-  </si>
-  <si>
-    <t>לְנֶגְדִּי</t>
-  </si>
-  <si>
-    <t>предо мною</t>
-  </si>
-  <si>
-    <t>ג</t>
-  </si>
-  <si>
-    <t>נֶאֱלַמְתִּי</t>
-  </si>
-  <si>
-    <t>я онемел</t>
-  </si>
-  <si>
-    <t>דוּמִיָּה</t>
-  </si>
-  <si>
-    <t>и молчал</t>
-  </si>
-  <si>
-    <t>הֶחֱשֵׁיתִי</t>
-  </si>
-  <si>
-    <t>смолчал</t>
-  </si>
-  <si>
-    <t>מִטּוֹב</t>
-  </si>
-  <si>
-    <t>и доброго</t>
-  </si>
-  <si>
-    <t>וּכְאֵבִי</t>
-  </si>
-  <si>
-    <t>и скорбь моя</t>
-  </si>
-  <si>
-    <t>נֶעְכָּר</t>
-  </si>
-  <si>
-    <t>возгорелась</t>
-  </si>
-  <si>
-    <t>ד</t>
-  </si>
-  <si>
-    <t>חַם</t>
-  </si>
-  <si>
-    <t>пылало</t>
-  </si>
-  <si>
-    <t>לִבִּי</t>
-  </si>
-  <si>
-    <t>сердце мое</t>
-  </si>
-  <si>
-    <t>בְּקִרְבִּי</t>
-  </si>
-  <si>
-    <t>во мне</t>
-  </si>
-  <si>
-    <t>בַּהֲגִיגִי</t>
-  </si>
-  <si>
-    <t>в размышлении моем</t>
-  </si>
-  <si>
-    <t>תִּבְעַר</t>
-  </si>
-  <si>
-    <t>разгорелся</t>
-  </si>
-  <si>
-    <t>אֵשׁ</t>
-  </si>
-  <si>
-    <t>огонь</t>
-  </si>
-  <si>
-    <t>דִּבַּרְתִּי</t>
-  </si>
-  <si>
     <t>ה</t>
   </si>
   <si>
-    <t>הוֹדִיעֵנִי</t>
+    <t>הודיעני</t>
   </si>
   <si>
-    <t>скажи мне</t>
+    <t>Скажи</t>
   </si>
   <si>
-    <t>יְהוָה</t>
+    <t>יהוה</t>
   </si>
   <si>
-    <t>Господи</t>
+    <t>мне, Господи,</t>
   </si>
   <si>
-    <t>קִצִּי</t>
+    <t>קצי</t>
   </si>
   <si>
-    <t>конец мой</t>
+    <t>кончину</t>
   </si>
   <si>
-    <t>וּמִדַּת</t>
+    <t>ומדת</t>
+  </si>
+  <si>
+    <t>мою</t>
+  </si>
+  <si>
+    <t>ימי</t>
   </si>
   <si>
     <t>и число</t>
   </si>
   <si>
-    <t>יָמַי</t>
+    <t>מה</t>
   </si>
   <si>
-    <t>дней моих</t>
+    <t>дней</t>
   </si>
   <si>
-    <t>מַה־הִיא</t>
+    <t>הוא</t>
   </si>
   <si>
-    <t>какое оно</t>
+    <t>моих,</t>
   </si>
   <si>
-    <t>אֵדְעָה</t>
+    <t>אדעה</t>
   </si>
   <si>
-    <t>дабы знать</t>
+    <t>какое</t>
   </si>
   <si>
-    <t>מֶה־חָדֵל</t>
+    <t>оно,</t>
+  </si>
+  <si>
+    <t>חדל</t>
+  </si>
+  <si>
+    <t>чтобы я знал,</t>
+  </si>
+  <si>
+    <t>אני</t>
+  </si>
+  <si>
+    <t>какой</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>הנה</t>
+  </si>
+  <si>
+    <t>Вот,</t>
+  </si>
+  <si>
+    <t>טפחות</t>
+  </si>
+  <si>
+    <t>Ты</t>
+  </si>
+  <si>
+    <t>נתתה</t>
+  </si>
+  <si>
+    <t>дал</t>
+  </si>
+  <si>
+    <t>мне дни,</t>
+  </si>
+  <si>
+    <t>וחלדי</t>
   </si>
   <si>
     <t>как</t>
   </si>
   <si>
-    <t>אָנִי</t>
+    <t>כאין</t>
   </si>
   <si>
-    <t>ничтожен</t>
+    <t>пяди,</t>
   </si>
   <si>
-    <t>ו</t>
+    <t>נגדך</t>
   </si>
   <si>
-    <t>הִנֵּה</t>
+    <t>и век</t>
   </si>
   <si>
-    <t>вот</t>
+    <t>אך</t>
   </si>
   <si>
-    <t>טְפָחוֹת</t>
+    <t>мой,</t>
   </si>
   <si>
-    <t>пяди</t>
-  </si>
-  <si>
-    <t>נָתַתָּה</t>
-  </si>
-  <si>
-    <t>поставил Ты</t>
-  </si>
-  <si>
-    <t>дни мои</t>
-  </si>
-  <si>
-    <t>וְחֶלְדִּי</t>
-  </si>
-  <si>
-    <t>и возраст мой</t>
-  </si>
-  <si>
-    <t>כְאַיִן</t>
+    <t>כל</t>
   </si>
   <si>
     <t>как ничто</t>
   </si>
   <si>
-    <t>נֶגְדֶּךָ</t>
+    <t>הבל</t>
   </si>
   <si>
-    <t>пред Тобою</t>
+    <t>пред Тобою;</t>
   </si>
   <si>
-    <t>אַךְ</t>
+    <t>подлинно,</t>
   </si>
   <si>
-    <t>подлинно</t>
+    <t>אדם</t>
   </si>
   <si>
-    <t>כָּל</t>
+    <t>совокупная</t>
   </si>
   <si>
-    <t>всякий</t>
-  </si>
-  <si>
-    <t>הֶבֶל</t>
+    <t>נצב</t>
   </si>
   <si>
     <t>суета</t>
   </si>
   <si>
-    <t>כָּל־אָדָם</t>
+    <t>סלה</t>
   </si>
   <si>
-    <t>всякий человек</t>
-  </si>
-  <si>
-    <t>נִצָּב</t>
-  </si>
-  <si>
-    <t>стоящий</t>
+    <t>всякий человек, живущий.</t>
   </si>
   <si>
     <t>ז</t>
   </si>
   <si>
-    <t>בְּצֶלֶם</t>
+    <t>Подлинно,</t>
   </si>
   <si>
-    <t>как тень</t>
-  </si>
-  <si>
-    <t>יִתְהַלֵּךְ</t>
-  </si>
-  <si>
-    <t>ходит</t>
-  </si>
-  <si>
-    <t>אִישׁ</t>
+    <t>בצלם</t>
   </si>
   <si>
     <t>человек</t>
   </si>
   <si>
-    <t>יֶהֱמָיוּן</t>
+    <t>יתהלך</t>
   </si>
   <si>
-    <t>он мечется</t>
+    <t>ходит,</t>
   </si>
   <si>
-    <t>יִצְבֹּר</t>
+    <t>איש</t>
   </si>
   <si>
-    <t>собирает</t>
+    <t>подобно призраку;</t>
   </si>
   <si>
-    <t>וְלֹא־יֵדַע</t>
+    <t>напрасно</t>
   </si>
   <si>
-    <t>и не знает</t>
+    <t>он</t>
   </si>
   <si>
-    <t>מִי־אֹסְפָם</t>
+    <t>יהמיון</t>
   </si>
   <si>
-    <t>кто соберет их</t>
+    <t>суетится;</t>
+  </si>
+  <si>
+    <t>יצבר</t>
+  </si>
+  <si>
+    <t>накапливает,</t>
+  </si>
+  <si>
+    <t>ולא</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>ידע</t>
+  </si>
+  <si>
+    <t>не знает,</t>
+  </si>
+  <si>
+    <t>מי</t>
+  </si>
+  <si>
+    <t>кому</t>
+  </si>
+  <si>
+    <t>אספם</t>
+  </si>
+  <si>
+    <t>достанется то</t>
   </si>
   <si>
     <t>ח</t>
   </si>
   <si>
-    <t>וְעַתָּה</t>
+    <t>ועתה</t>
   </si>
   <si>
-    <t>и ныне</t>
+    <t>И</t>
   </si>
   <si>
-    <t>מַה־קִּוִּיתִי</t>
+    <t>ныне</t>
   </si>
   <si>
-    <t>чего ждать мне</t>
+    <t>קויתי</t>
   </si>
   <si>
-    <t>אֲדֹנָי</t>
+    <t>чего</t>
   </si>
   <si>
-    <t>תּוֹחַלְתִּי</t>
+    <t>אדני</t>
   </si>
   <si>
-    <t>надежда моя</t>
+    <t>ожидать</t>
   </si>
   <si>
-    <t>לְךָ</t>
+    <t>תוחלתי</t>
   </si>
   <si>
-    <t>на Тебя</t>
+    <t>мне, Господи?</t>
   </si>
   <si>
-    <t>הִיא</t>
+    <t>לך</t>
   </si>
   <si>
-    <t>она</t>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>היא</t>
+  </si>
+  <si>
+    <t>моя на Тебя.</t>
   </si>
   <si>
     <t>ט</t>
@@ -445,6 +496,12 @@
     <t>י</t>
   </si>
   <si>
+    <t>נֶאֱלַמְתִּי</t>
+  </si>
+  <si>
+    <t>я онемел</t>
+  </si>
+  <si>
     <t>לֹא</t>
   </si>
   <si>
@@ -464,9 +521,6 @@
   </si>
   <si>
     <t>אַתָּה</t>
-  </si>
-  <si>
-    <t>Ты</t>
   </si>
   <si>
     <t>עָשִׂיתָ</t>
@@ -535,6 +589,9 @@
     <t>наказываешь</t>
   </si>
   <si>
+    <t>אִישׁ</t>
+  </si>
+  <si>
     <t>человека</t>
   </si>
   <si>
@@ -556,7 +613,25 @@
     <t>сокровище его</t>
   </si>
   <si>
+    <t>אַךְ</t>
+  </si>
+  <si>
+    <t>подлинно</t>
+  </si>
+  <si>
+    <t>הֶבֶל</t>
+  </si>
+  <si>
+    <t>כָּל־אָדָם</t>
+  </si>
+  <si>
+    <t>всякий человек</t>
+  </si>
+  <si>
     <t>סֶלָה</t>
+  </si>
+  <si>
+    <t>псалом</t>
   </si>
   <si>
     <t>יג</t>
@@ -572,6 +647,12 @@
   </si>
   <si>
     <t>молитву мою</t>
+  </si>
+  <si>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>Господи</t>
   </si>
   <si>
     <t>וְשַׁוְעָתִי</t>
@@ -668,7 +749,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -683,6 +764,11 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -706,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -717,14 +803,29 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,7 +1591,7 @@
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2"/>
@@ -1743,10 +1844,10 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="7">
         <v>4.0</v>
       </c>
       <c r="C26" s="2"/>
@@ -1971,7 +2072,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2003,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2031,10 +2132,10 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
-        <v>60</v>
+      <c r="A35" s="7" t="s">
+        <v>62</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="7">
         <v>5.0</v>
       </c>
       <c r="C35" s="2"/>
@@ -2064,10 +2165,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2096,10 +2197,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2128,10 +2229,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2160,10 +2261,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2192,10 +2293,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2224,10 +2325,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2256,10 +2357,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2288,10 +2389,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2320,10 +2421,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2351,11 +2452,11 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>79</v>
+      <c r="A45" s="4" t="s">
+        <v>80</v>
       </c>
-      <c r="B45" s="6">
-        <v>6.0</v>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2384,10 +2485,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2415,11 +2516,11 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>82</v>
+      <c r="A47" s="7" t="s">
+        <v>84</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>83</v>
+      <c r="B47" s="7">
+        <v>6.0</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2448,12 +2549,12 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2480,12 +2581,12 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2512,12 +2613,12 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2544,12 +2645,12 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2576,12 +2677,12 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2608,12 +2709,12 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2640,12 +2741,12 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2672,12 +2773,12 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2704,12 +2805,12 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2736,12 +2837,12 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2767,13 +2868,13 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
-        <v>103</v>
+      <c r="A58" s="4" t="s">
+        <v>100</v>
       </c>
-      <c r="B58" s="6">
-        <v>7.0</v>
+      <c r="B58" s="5" t="s">
+        <v>104</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2800,12 +2901,12 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2832,12 +2933,12 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2864,12 +2965,12 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2895,11 +2996,11 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>108</v>
+      <c r="A62" s="7" t="s">
+        <v>111</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>109</v>
+      <c r="B62" s="7">
+        <v>7.0</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2928,10 +3029,10 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2960,10 +3061,10 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2992,10 +3093,10 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3024,10 +3125,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3056,10 +3157,10 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3088,10 +3189,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3119,11 +3220,11 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="s">
-        <v>118</v>
+      <c r="A69" s="4" t="s">
+        <v>121</v>
       </c>
-      <c r="B69" s="6">
-        <v>8.0</v>
+      <c r="B69" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3152,10 +3253,10 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3184,10 +3285,10 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3216,10 +3317,10 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3248,10 +3349,10 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3280,10 +3381,10 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3311,11 +3412,11 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
-        <v>128</v>
+      <c r="A75" s="7" t="s">
+        <v>133</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>129</v>
+      <c r="B75" s="7">
+        <v>8.0</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3343,11 +3444,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
-        <v>130</v>
+      <c r="A76" s="4" t="s">
+        <v>134</v>
       </c>
-      <c r="B76" s="6">
-        <v>9.0</v>
+      <c r="B76" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3376,10 +3477,10 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3408,10 +3509,10 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3440,10 +3541,10 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3472,10 +3573,10 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3504,10 +3605,10 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3536,10 +3637,10 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3567,11 +3668,11 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="s">
-        <v>143</v>
+      <c r="A83" s="7" t="s">
+        <v>147</v>
       </c>
-      <c r="B83" s="6">
-        <v>10.0</v>
+      <c r="B83" s="7">
+        <v>9.0</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3599,11 +3700,11 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>34</v>
+      <c r="A84" s="9" t="s">
+        <v>148</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>35</v>
+      <c r="B84" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3631,11 +3732,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>144</v>
+      <c r="A85" s="9" t="s">
+        <v>150</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>145</v>
+      <c r="B85" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3663,11 +3764,11 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>146</v>
+      <c r="A86" s="9" t="s">
+        <v>152</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>147</v>
+      <c r="B86" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3695,11 +3796,11 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>148</v>
+      <c r="A87" s="11" t="s">
+        <v>154</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>149</v>
+      <c r="B87" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3727,11 +3828,11 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>150</v>
+      <c r="A88" s="11" t="s">
+        <v>156</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>151</v>
+      <c r="B88" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3759,11 +3860,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>152</v>
+      <c r="A89" s="11" t="s">
+        <v>158</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>153</v>
+      <c r="B89" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3791,11 +3892,11 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="s">
-        <v>154</v>
+      <c r="A90" s="7" t="s">
+        <v>160</v>
       </c>
-      <c r="B90" s="6">
-        <v>11.0</v>
+      <c r="B90" s="7">
+        <v>10.0</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3823,11 +3924,11 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
-        <v>155</v>
+      <c r="A91" s="11" t="s">
+        <v>161</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>156</v>
+      <c r="B91" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3855,11 +3956,11 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>157</v>
+      <c r="A92" s="11" t="s">
+        <v>163</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>158</v>
+      <c r="B92" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3887,11 +3988,11 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>159</v>
+      <c r="A93" s="11" t="s">
+        <v>165</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>160</v>
+      <c r="B93" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3919,11 +4020,11 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
-        <v>161</v>
+      <c r="A94" s="11" t="s">
+        <v>167</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>162</v>
+      <c r="B94" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3951,11 +4052,11 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>163</v>
+      <c r="A95" s="11" t="s">
+        <v>169</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>164</v>
+      <c r="B95" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3983,11 +4084,11 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>165</v>
+      <c r="A96" s="11" t="s">
+        <v>170</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>166</v>
+      <c r="B96" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4015,11 +4116,11 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="s">
-        <v>167</v>
+      <c r="A97" s="7" t="s">
+        <v>172</v>
       </c>
-      <c r="B97" s="6">
-        <v>12.0</v>
+      <c r="B97" s="7">
+        <v>11.0</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4047,11 +4148,11 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
-        <v>168</v>
+      <c r="A98" s="11" t="s">
+        <v>173</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>169</v>
+      <c r="B98" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4079,11 +4180,11 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>170</v>
+      <c r="A99" s="11" t="s">
+        <v>175</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>171</v>
+      <c r="B99" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4111,11 +4212,11 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>172</v>
+      <c r="A100" s="11" t="s">
+        <v>177</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>173</v>
+      <c r="B100" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4143,11 +4244,11 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>108</v>
+      <c r="A101" s="11" t="s">
+        <v>179</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>174</v>
+      <c r="B101" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4175,11 +4276,11 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>175</v>
+      <c r="A102" s="11" t="s">
+        <v>181</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>176</v>
+      <c r="B102" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4207,11 +4308,11 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="s">
-        <v>177</v>
+      <c r="A103" s="11" t="s">
+        <v>183</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>178</v>
+      <c r="B103" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4239,11 +4340,11 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>179</v>
+      <c r="A104" s="7" t="s">
+        <v>185</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>180</v>
+      <c r="B104" s="7">
+        <v>12.0</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4271,11 +4372,11 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="s">
-        <v>93</v>
+      <c r="A105" s="11" t="s">
+        <v>186</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>94</v>
+      <c r="B105" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4303,11 +4404,11 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="s">
-        <v>97</v>
+      <c r="A106" s="11" t="s">
+        <v>188</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>98</v>
+      <c r="B106" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4335,11 +4436,11 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>99</v>
+      <c r="A107" s="11" t="s">
+        <v>190</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>100</v>
+      <c r="B107" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4367,11 +4468,11 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="s">
-        <v>181</v>
+      <c r="A108" s="11" t="s">
+        <v>192</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>8</v>
+      <c r="B108" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4399,11 +4500,11 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="6" t="s">
-        <v>182</v>
+      <c r="A109" s="11" t="s">
+        <v>194</v>
       </c>
-      <c r="B109" s="6">
-        <v>13.0</v>
+      <c r="B109" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4431,11 +4532,11 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>183</v>
+      <c r="A110" s="11" t="s">
+        <v>196</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>184</v>
+      <c r="B110" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4463,11 +4564,11 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="s">
-        <v>185</v>
+      <c r="A111" s="11" t="s">
+        <v>198</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>186</v>
+      <c r="B111" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4495,11 +4596,11 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="4" t="s">
-        <v>63</v>
+      <c r="A112" s="11" t="s">
+        <v>200</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>64</v>
+      <c r="B112" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4527,11 +4628,11 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>187</v>
+      <c r="A113" s="11" t="s">
+        <v>202</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>188</v>
+      <c r="B113" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4559,11 +4660,11 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>189</v>
+      <c r="A114" s="11" t="s">
+        <v>203</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>190</v>
+      <c r="B114" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4591,11 +4692,11 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>191</v>
+      <c r="A115" s="11" t="s">
+        <v>205</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>192</v>
+      <c r="B115" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4623,11 +4724,11 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>193</v>
+      <c r="A116" s="7" t="s">
+        <v>207</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>194</v>
+      <c r="B116" s="7">
+        <v>13.0</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4655,11 +4756,11 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>195</v>
+      <c r="A117" s="11" t="s">
+        <v>208</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>196</v>
+      <c r="B117" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4687,11 +4788,11 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>197</v>
+      <c r="A118" s="11" t="s">
+        <v>210</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>198</v>
+      <c r="B118" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4719,11 +4820,11 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="s">
-        <v>199</v>
+      <c r="A119" s="11" t="s">
+        <v>212</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>200</v>
+      <c r="B119" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4751,11 +4852,11 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="s">
-        <v>201</v>
+      <c r="A120" s="11" t="s">
+        <v>214</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>202</v>
+      <c r="B120" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4783,11 +4884,11 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="s">
-        <v>203</v>
+      <c r="A121" s="11" t="s">
+        <v>216</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>204</v>
+      <c r="B121" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -4815,11 +4916,11 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="s">
-        <v>205</v>
+      <c r="A122" s="11" t="s">
+        <v>218</v>
       </c>
-      <c r="B122" s="6">
-        <v>14.0</v>
+      <c r="B122" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4847,11 +4948,11 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
-        <v>206</v>
+      <c r="A123" s="11" t="s">
+        <v>220</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>207</v>
+      <c r="B123" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4879,11 +4980,11 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="s">
-        <v>208</v>
+      <c r="A124" s="11" t="s">
+        <v>222</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>158</v>
+      <c r="B124" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4911,11 +5012,11 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="s">
-        <v>209</v>
+      <c r="A125" s="11" t="s">
+        <v>224</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>210</v>
+      <c r="B125" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -4943,11 +5044,11 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="s">
-        <v>211</v>
+      <c r="A126" s="11" t="s">
+        <v>226</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>212</v>
+      <c r="B126" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -4975,11 +5076,11 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="s">
-        <v>213</v>
+      <c r="A127" s="11" t="s">
+        <v>228</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>214</v>
+      <c r="B127" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5007,11 +5108,11 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="s">
-        <v>215</v>
+      <c r="A128" s="11" t="s">
+        <v>230</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>216</v>
+      <c r="B128" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5039,8 +5140,12 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="7">
+        <v>14.0</v>
+      </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5067,8 +5172,12 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>234</v>
+      </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5095,8 +5204,12 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5123,8 +5236,12 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>237</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5151,8 +5268,12 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5179,8 +5300,12 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+      <c r="A134" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5207,8 +5332,12 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -29454,6 +29583,202 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
